--- a/Example_data/Output/Predictions/MovementEcologyPaper/Supplementary_2_home_range_data.xlsx
+++ b/Example_data/Output/Predictions/MovementEcologyPaper/Supplementary_2_home_range_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s5236256\Documents\GitHub\ml4rt\Example_data\Output\Predictions\MovementEcologyPaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C946D5B9-5B93-4F38-BFB2-3F619154ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951D6765-AEF5-4EF0-AAF4-E394DA62D2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21120" windowHeight="11184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Example_data/Output/Predictions/MovementEcologyPaper/Supplementary_2_home_range_data.xlsx
+++ b/Example_data/Output/Predictions/MovementEcologyPaper/Supplementary_2_home_range_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s5236256\Documents\GitHub\ml4rt\Example_data\Output\Predictions\MovementEcologyPaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951D6765-AEF5-4EF0-AAF4-E394DA62D2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58849ECA-0E7C-4BA7-89AF-04F4FDFADA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21120" windowHeight="11184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="576" yWindow="1044" windowWidth="21120" windowHeight="11184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="132">
   <si>
     <t>DOF_area</t>
   </si>
@@ -404,12 +404,6 @@
     <t>027-55660</t>
   </si>
   <si>
-    <t>Home range ID</t>
-  </si>
-  <si>
-    <t>Date of transmitter attachment</t>
-  </si>
-  <si>
     <t>Season</t>
   </si>
   <si>
@@ -420,6 +414,21 @@
   </si>
   <si>
     <t>MCP</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Early Wet</t>
+  </si>
+  <si>
+    <t>Home_range_ID</t>
+  </si>
+  <si>
+    <t>Date_of_transmitter_attachment</t>
   </si>
 </sst>
 </file>
@@ -457,7 +466,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,15 +766,15 @@
   <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
@@ -773,15 +782,15 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
@@ -791,23 +800,29 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="B2" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2">
         <v>2.9120601851851902</v>
       </c>
       <c r="E2">
@@ -830,7 +845,13 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="B3" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3">
         <v>46.100254629629603</v>
       </c>
       <c r="E3">
@@ -853,7 +874,13 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="B4" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4">
         <v>3.7802314814814801</v>
       </c>
       <c r="E4">
@@ -876,7 +903,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="B5" s="1">
+        <v>45058</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5">
         <v>7.9177893518518498</v>
       </c>
       <c r="E5">
@@ -899,7 +932,13 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="B6" s="1">
+        <v>45058</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6">
         <v>20.034456018518501</v>
       </c>
       <c r="E6">
@@ -922,7 +961,13 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="B7" s="1">
+        <v>45058</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7">
         <v>12.8458217592593</v>
       </c>
       <c r="E7">
@@ -945,7 +990,13 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
+      <c r="B8" s="1">
+        <v>45058</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8">
         <v>42.981354166666698</v>
       </c>
       <c r="E8">
@@ -968,7 +1019,13 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
+      <c r="B9" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
         <v>21.836284722222199</v>
       </c>
       <c r="E9">
@@ -991,7 +1048,13 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
+      <c r="B10" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10">
         <v>1.4642013888888901</v>
       </c>
       <c r="E10">
@@ -1014,7 +1077,13 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="B11" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11">
         <v>4.9682060185185204</v>
       </c>
       <c r="E11">
@@ -1037,7 +1106,13 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1">
+      <c r="B12" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12">
         <v>0.81327546296296305</v>
       </c>
       <c r="E12">
@@ -1060,7 +1135,13 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1">
+      <c r="B13" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13">
         <v>30.9061342592593</v>
       </c>
       <c r="E13">
@@ -1083,7 +1164,13 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1">
+      <c r="B14" s="1">
+        <v>45054</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14">
         <v>46.104062499999998</v>
       </c>
       <c r="E14">
@@ -1106,7 +1193,13 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1">
+      <c r="B15" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15">
         <v>119.78888888888901</v>
       </c>
       <c r="E15">
@@ -1129,7 +1222,13 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1">
+      <c r="B16" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16">
         <v>73.234722222222203</v>
       </c>
       <c r="E16">
@@ -1152,7 +1251,13 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1">
+      <c r="B17" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17">
         <v>1.06388888888889</v>
       </c>
       <c r="E17">
@@ -1175,7 +1280,13 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1">
+      <c r="B18" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18">
         <v>4.96597222222222</v>
       </c>
       <c r="E18">
@@ -1198,7 +1309,13 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1">
+      <c r="B19" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19">
         <v>102.890972222222</v>
       </c>
       <c r="E19">
@@ -1221,7 +1338,13 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1">
+      <c r="B20" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20">
         <v>12.779861111111099</v>
       </c>
       <c r="E20">
@@ -1244,7 +1367,13 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1">
+      <c r="B21" s="1">
+        <v>44229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21">
         <v>0.94583333333333297</v>
       </c>
       <c r="E21">
@@ -1267,7 +1396,13 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="1">
+      <c r="B22" s="1">
+        <v>44230</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22">
         <v>8.2618055555555596</v>
       </c>
       <c r="E22">
@@ -1290,7 +1425,13 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1">
+      <c r="B23" s="1">
+        <v>44231</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23">
         <v>2.1284722222222201</v>
       </c>
       <c r="E23">
@@ -1313,7 +1454,13 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="1">
+      <c r="B24" s="1">
+        <v>44231</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24">
         <v>75.824305555555597</v>
       </c>
       <c r="E24">
@@ -1336,7 +1483,13 @@
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="1">
+      <c r="B25" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25">
         <v>19.063194444444399</v>
       </c>
       <c r="E25">
@@ -1359,7 +1512,13 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="1">
+      <c r="B26" s="1">
+        <v>44233</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26">
         <v>6.00138888888889</v>
       </c>
       <c r="E26">
@@ -1382,7 +1541,13 @@
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="1">
+      <c r="B27" s="1">
+        <v>44602</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27">
         <v>35.942361111111097</v>
       </c>
       <c r="E27">
@@ -1405,7 +1570,13 @@
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1">
+      <c r="B28" s="1">
+        <v>44233</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28">
         <v>9.3041666666666707</v>
       </c>
       <c r="E28">
@@ -1428,7 +1599,13 @@
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="1">
+      <c r="B29" s="1">
+        <v>44235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29">
         <v>36.900694444444397</v>
       </c>
       <c r="E29">
@@ -1451,7 +1628,13 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1">
+      <c r="B30" s="1">
+        <v>44235</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30">
         <v>35.984722222222203</v>
       </c>
       <c r="E30">
@@ -1474,7 +1657,13 @@
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="1">
+      <c r="B31" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31">
         <v>7.8888888888888902</v>
       </c>
       <c r="E31">
@@ -1497,7 +1686,13 @@
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="1">
+      <c r="B32" s="1">
+        <v>44842</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32">
         <v>23.907638888888901</v>
       </c>
       <c r="E32">
@@ -1520,7 +1715,13 @@
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="1">
+      <c r="B33" s="1">
+        <v>44983</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33">
         <v>4.80833333333333</v>
       </c>
       <c r="E33">
@@ -1543,7 +1744,13 @@
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="1">
+      <c r="B34" s="1">
+        <v>44267</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34">
         <v>3.3652777777777798</v>
       </c>
       <c r="E34">
@@ -1566,7 +1773,13 @@
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="1">
+      <c r="B35" s="1">
+        <v>44269</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35">
         <v>3.1152777777777798</v>
       </c>
       <c r="E35">
@@ -1589,7 +1802,13 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="1">
+      <c r="B36" s="1">
+        <v>44270</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36">
         <v>36.5868055555556</v>
       </c>
       <c r="E36">
@@ -1612,7 +1831,13 @@
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="1">
+      <c r="B37" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37">
         <v>89.775000000000006</v>
       </c>
       <c r="E37">
@@ -1635,7 +1860,13 @@
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="1">
+      <c r="B38" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38">
         <v>15.1770833333333</v>
       </c>
       <c r="E38">
@@ -1658,7 +1889,13 @@
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="1">
+      <c r="B39" s="1">
+        <v>44270</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39">
         <v>119.732638888889</v>
       </c>
       <c r="E39">
@@ -1681,7 +1918,13 @@
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="1">
+      <c r="B40" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40">
         <v>32.353472222222202</v>
       </c>
       <c r="E40">
@@ -1704,7 +1947,13 @@
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="1">
+      <c r="B41" s="1">
+        <v>44447</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41">
         <v>2.27847222222222</v>
       </c>
       <c r="E41">
@@ -1727,7 +1976,13 @@
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="1">
+      <c r="B42" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42">
         <v>14.4798611111111</v>
       </c>
       <c r="E42">
@@ -1750,7 +2005,13 @@
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="1">
+      <c r="B43" s="1">
+        <v>44449</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43">
         <v>5.5687499999999996</v>
       </c>
       <c r="E43">
@@ -1773,7 +2034,13 @@
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="1">
+      <c r="B44" s="1">
+        <v>44449</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44">
         <v>17.454166666666701</v>
       </c>
       <c r="E44">
@@ -1796,7 +2063,13 @@
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="1">
+      <c r="B45" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45">
         <v>18.470833333333299</v>
       </c>
       <c r="E45">
@@ -1819,7 +2092,13 @@
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="1">
+      <c r="B46" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46">
         <v>12.5902777777778</v>
       </c>
       <c r="E46">
@@ -1842,7 +2121,13 @@
       <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="1">
+      <c r="B47" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47">
         <v>19.25</v>
       </c>
       <c r="E47">
@@ -1865,7 +2150,13 @@
       <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="1">
+      <c r="B48" s="1">
+        <v>44450</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48">
         <v>15.436805555555599</v>
       </c>
       <c r="E48">
@@ -1888,7 +2179,13 @@
       <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="1">
+      <c r="B49" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49">
         <v>64.500694444444406</v>
       </c>
       <c r="E49">
@@ -1911,7 +2208,13 @@
       <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="1">
+      <c r="B50" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50">
         <v>14.81875</v>
       </c>
       <c r="E50">
@@ -1934,7 +2237,13 @@
       <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="1">
+      <c r="B51" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51">
         <v>20.1756944444444</v>
       </c>
       <c r="E51">
@@ -1957,7 +2266,13 @@
       <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="1">
+      <c r="B52" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52">
         <v>25.935416666666701</v>
       </c>
       <c r="E52">
@@ -1980,7 +2295,13 @@
       <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="1">
+      <c r="B53" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53">
         <v>6.06666666666667</v>
       </c>
       <c r="E53">
@@ -2003,7 +2324,13 @@
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="1">
+      <c r="B54" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54">
         <v>31.436805555555601</v>
       </c>
       <c r="E54">
@@ -2026,7 +2353,13 @@
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="1">
+      <c r="B55" s="1">
+        <v>44453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55">
         <v>13.3097222222222</v>
       </c>
       <c r="E55">
@@ -2049,7 +2382,13 @@
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="1">
+      <c r="B56" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56">
         <v>0.89722222222222203</v>
       </c>
       <c r="E56">
@@ -2072,7 +2411,13 @@
       <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="1">
+      <c r="B57" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57">
         <v>44.061111111111103</v>
       </c>
       <c r="E57">
@@ -2095,7 +2440,13 @@
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="1">
+      <c r="B58" s="1">
+        <v>44454</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58">
         <v>1.2166666666666699</v>
       </c>
       <c r="E58">
@@ -2118,7 +2469,13 @@
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="1">
+      <c r="B59" s="1">
+        <v>44455</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59">
         <v>14.2263888888889</v>
       </c>
       <c r="E59">
@@ -2141,7 +2498,13 @@
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="1">
+      <c r="B60" s="1">
+        <v>44601</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60">
         <v>18.411111111111101</v>
       </c>
       <c r="E60">
@@ -2164,7 +2527,13 @@
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="1">
+      <c r="B61" s="1">
+        <v>44603</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61">
         <v>26.700694444444402</v>
       </c>
       <c r="E61">
@@ -2187,7 +2556,13 @@
       <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="1">
+      <c r="B62" s="1">
+        <v>44608</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62">
         <v>13.99375</v>
       </c>
       <c r="E62">
@@ -2210,7 +2585,13 @@
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="1">
+      <c r="B63" s="1">
+        <v>44603</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63">
         <v>12.643750000000001</v>
       </c>
       <c r="E63">
@@ -2233,7 +2614,13 @@
       <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="1">
+      <c r="B64" s="1">
+        <v>44604</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64">
         <v>34.813888888888897</v>
       </c>
       <c r="E64">
@@ -2256,7 +2643,13 @@
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="1">
+      <c r="B65" s="1">
+        <v>44607</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65">
         <v>2.7111111111111099</v>
       </c>
       <c r="E65">
@@ -2279,7 +2672,13 @@
       <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="1">
+      <c r="B66" s="1">
+        <v>44607</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66">
         <v>14.8708333333333</v>
       </c>
       <c r="E66">
@@ -2302,7 +2701,13 @@
       <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="1">
+      <c r="B67" s="1">
+        <v>44607</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67">
         <v>10.8229166666667</v>
       </c>
       <c r="E67">
@@ -2325,7 +2730,13 @@
       <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="1">
+      <c r="B68" s="1">
+        <v>44608</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68">
         <v>21.034027777777801</v>
       </c>
       <c r="E68">
@@ -2348,7 +2759,13 @@
       <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="1">
+      <c r="B69" s="1">
+        <v>44609</v>
+      </c>
+      <c r="C69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69">
         <v>8.8222222222222193</v>
       </c>
       <c r="E69">
@@ -2371,7 +2788,13 @@
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="1">
+      <c r="B70" s="1">
+        <v>44609</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70">
         <v>18.735416666666701</v>
       </c>
       <c r="E70">
@@ -2394,7 +2817,13 @@
       <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="1">
+      <c r="B71" s="1">
+        <v>44609</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71">
         <v>37.028472222222199</v>
       </c>
       <c r="E71">
@@ -2417,7 +2846,13 @@
       <c r="A72" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="1">
+      <c r="B72" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72">
         <v>10.116666666666699</v>
       </c>
       <c r="E72">
@@ -2440,7 +2875,13 @@
       <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="1">
+      <c r="B73" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73">
         <v>22.726388888888899</v>
       </c>
       <c r="E73">
@@ -2463,7 +2904,13 @@
       <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="1">
+      <c r="B74" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74">
         <v>34.820833333333297</v>
       </c>
       <c r="E74">
@@ -2486,7 +2933,13 @@
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="1">
+      <c r="B75" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75">
         <v>16.132638888888899</v>
       </c>
       <c r="E75">
@@ -2509,7 +2962,13 @@
       <c r="A76" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="1">
+      <c r="B76" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76">
         <v>21.832638888888901</v>
       </c>
       <c r="E76">
@@ -2532,7 +2991,13 @@
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="1">
+      <c r="B77" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77">
         <v>23.5506944444444</v>
       </c>
       <c r="E77">
@@ -2555,7 +3020,13 @@
       <c r="A78" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="1">
+      <c r="B78" s="1">
+        <v>44714</v>
+      </c>
+      <c r="C78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78">
         <v>17.8194444444444</v>
       </c>
       <c r="E78">
@@ -2578,7 +3049,13 @@
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="1">
+      <c r="B79" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C79" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79">
         <v>17.227777777777799</v>
       </c>
       <c r="E79">
@@ -2601,7 +3078,13 @@
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="1">
+      <c r="B80" s="1">
+        <v>44714</v>
+      </c>
+      <c r="C80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80">
         <v>43.563194444444399</v>
       </c>
       <c r="E80">
@@ -2624,7 +3107,13 @@
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="1">
+      <c r="B81" s="1">
+        <v>44716</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81">
         <v>37.6909722222222</v>
       </c>
       <c r="E81">
@@ -2647,7 +3136,13 @@
       <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="1">
+      <c r="B82" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82">
         <v>18.2569444444444</v>
       </c>
       <c r="E82">
@@ -2670,7 +3165,13 @@
       <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="1">
+      <c r="B83" s="1">
+        <v>44716</v>
+      </c>
+      <c r="C83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83">
         <v>14.141666666666699</v>
       </c>
       <c r="E83">
@@ -2693,7 +3194,13 @@
       <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="1">
+      <c r="B84" s="1">
+        <v>44717</v>
+      </c>
+      <c r="C84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84">
         <v>36.219444444444399</v>
       </c>
       <c r="E84">
@@ -2716,7 +3223,13 @@
       <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="1">
+      <c r="B85" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85">
         <v>9.1118055555555593</v>
       </c>
       <c r="E85">
@@ -2739,7 +3252,13 @@
       <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="D86" s="1">
+      <c r="B86" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86">
         <v>25.6076388888889</v>
       </c>
       <c r="E86">
@@ -2762,7 +3281,13 @@
       <c r="A87" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="1">
+      <c r="B87" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87">
         <v>17.936111111111099</v>
       </c>
       <c r="E87">
@@ -2785,7 +3310,13 @@
       <c r="A88" t="s">
         <v>90</v>
       </c>
-      <c r="D88" s="1">
+      <c r="B88" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C88" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88">
         <v>6.8937499999999998</v>
       </c>
       <c r="E88">
@@ -2808,7 +3339,13 @@
       <c r="A89" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="1">
+      <c r="B89" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C89" t="s">
+        <v>128</v>
+      </c>
+      <c r="D89">
         <v>2.9788078703703702</v>
       </c>
       <c r="E89">
@@ -2831,7 +3368,13 @@
       <c r="A90" t="s">
         <v>92</v>
       </c>
-      <c r="D90" s="1">
+      <c r="B90" s="1">
+        <v>44842</v>
+      </c>
+      <c r="C90" t="s">
+        <v>128</v>
+      </c>
+      <c r="D90">
         <v>8.8159722222222197</v>
       </c>
       <c r="E90">
@@ -2854,7 +3397,13 @@
       <c r="A91" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="1">
+      <c r="B91" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D91">
         <v>28.587499999999999</v>
       </c>
       <c r="E91">
@@ -2877,7 +3426,13 @@
       <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="1">
+      <c r="B92" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C92" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92">
         <v>19.9906481481481</v>
       </c>
       <c r="E92">
@@ -2900,7 +3455,13 @@
       <c r="A93" t="s">
         <v>95</v>
       </c>
-      <c r="D93" s="1">
+      <c r="B93" s="1">
+        <v>44844</v>
+      </c>
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93">
         <v>18.768750000000001</v>
       </c>
       <c r="E93">
@@ -2923,7 +3484,13 @@
       <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="D94" s="1">
+      <c r="B94" s="1">
+        <v>44845</v>
+      </c>
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94">
         <v>30.990972222222201</v>
       </c>
       <c r="E94">
@@ -2946,7 +3513,13 @@
       <c r="A95" t="s">
         <v>97</v>
       </c>
-      <c r="D95" s="1">
+      <c r="B95" s="1">
+        <v>44845</v>
+      </c>
+      <c r="C95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95">
         <v>1.1864814814814799</v>
       </c>
       <c r="E95">
@@ -2969,7 +3542,13 @@
       <c r="A96" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="1">
+      <c r="B96" s="1">
+        <v>44845</v>
+      </c>
+      <c r="C96" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96">
         <v>39.800694444444403</v>
       </c>
       <c r="E96">
@@ -2992,7 +3571,13 @@
       <c r="A97" t="s">
         <v>99</v>
       </c>
-      <c r="D97" s="1">
+      <c r="B97" s="1">
+        <v>44845</v>
+      </c>
+      <c r="C97" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97">
         <v>6.8340277777777798</v>
       </c>
       <c r="E97">
@@ -3015,7 +3600,13 @@
       <c r="A98" t="s">
         <v>100</v>
       </c>
-      <c r="D98" s="1">
+      <c r="B98" s="1">
+        <v>44845</v>
+      </c>
+      <c r="C98" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98">
         <v>39.978472222222202</v>
       </c>
       <c r="E98">
@@ -3038,7 +3629,13 @@
       <c r="A99" t="s">
         <v>101</v>
       </c>
-      <c r="D99" s="1">
+      <c r="B99" s="1">
+        <v>44847</v>
+      </c>
+      <c r="C99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99">
         <v>39.1527777777778</v>
       </c>
       <c r="E99">
@@ -3061,7 +3658,13 @@
       <c r="A100" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="1">
+      <c r="B100" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C100" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100">
         <v>38.167361111111099</v>
       </c>
       <c r="E100">
@@ -3084,7 +3687,13 @@
       <c r="A101" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="1">
+      <c r="B101" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C101" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101">
         <v>25.929166666666699</v>
       </c>
       <c r="E101">
@@ -3107,7 +3716,13 @@
       <c r="A102" t="s">
         <v>104</v>
       </c>
-      <c r="D102" s="1">
+      <c r="B102" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102">
         <v>23.774999999999999</v>
       </c>
       <c r="E102">
@@ -3130,7 +3745,13 @@
       <c r="A103" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="1">
+      <c r="B103" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C103" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103">
         <v>2.71597222222222</v>
       </c>
       <c r="E103">
@@ -3153,7 +3774,13 @@
       <c r="A104" t="s">
         <v>106</v>
       </c>
-      <c r="D104" s="1">
+      <c r="B104" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C104" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104">
         <v>10.791539351851901</v>
       </c>
       <c r="E104">
@@ -3176,7 +3803,13 @@
       <c r="A105" t="s">
         <v>107</v>
       </c>
-      <c r="D105" s="1">
+      <c r="B105" s="1">
+        <v>44979</v>
+      </c>
+      <c r="C105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105">
         <v>26.570833333333301</v>
       </c>
       <c r="E105">
@@ -3199,7 +3832,13 @@
       <c r="A106" t="s">
         <v>108</v>
       </c>
-      <c r="D106" s="1">
+      <c r="B106" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C106" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106">
         <v>9.8590277777777793</v>
       </c>
       <c r="E106">
@@ -3222,7 +3861,13 @@
       <c r="A107" t="s">
         <v>109</v>
       </c>
-      <c r="D107" s="1">
+      <c r="B107" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C107" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107">
         <v>13.670833333333301</v>
       </c>
       <c r="E107">
@@ -3245,7 +3890,13 @@
       <c r="A108" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="1">
+      <c r="B108" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C108" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108">
         <v>50.84375</v>
       </c>
       <c r="E108">
@@ -3268,7 +3919,13 @@
       <c r="A109" t="s">
         <v>111</v>
       </c>
-      <c r="D109" s="1">
+      <c r="B109" s="1">
+        <v>44980</v>
+      </c>
+      <c r="C109" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109">
         <v>1.7865162037036999</v>
       </c>
       <c r="E109">
@@ -3291,7 +3948,13 @@
       <c r="A110" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="1">
+      <c r="B110" s="1">
+        <v>44985</v>
+      </c>
+      <c r="C110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110">
         <v>6.9097222222222197</v>
       </c>
       <c r="E110">
@@ -3314,7 +3977,13 @@
       <c r="A111" t="s">
         <v>113</v>
       </c>
-      <c r="D111" s="1">
+      <c r="B111" s="1">
+        <v>44983</v>
+      </c>
+      <c r="C111" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111">
         <v>13.820833333333301</v>
       </c>
       <c r="E111">
@@ -3337,7 +4006,13 @@
       <c r="A112" t="s">
         <v>114</v>
       </c>
-      <c r="D112" s="1">
+      <c r="B112" s="1">
+        <v>44983</v>
+      </c>
+      <c r="C112" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112">
         <v>20.513194444444402</v>
       </c>
       <c r="E112">
@@ -3360,7 +4035,13 @@
       <c r="A113" t="s">
         <v>115</v>
       </c>
-      <c r="D113" s="1">
+      <c r="B113" s="1">
+        <v>44985</v>
+      </c>
+      <c r="C113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113">
         <v>4.8180092592592603</v>
       </c>
       <c r="E113">
@@ -3383,7 +4064,13 @@
       <c r="A114" t="s">
         <v>116</v>
       </c>
-      <c r="D114" s="1">
+      <c r="B114" s="1">
+        <v>44985</v>
+      </c>
+      <c r="C114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114">
         <v>9.1326388888888896</v>
       </c>
       <c r="E114">
@@ -3406,7 +4093,13 @@
       <c r="A115" t="s">
         <v>117</v>
       </c>
-      <c r="D115" s="1">
+      <c r="B115" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115">
         <v>30.902083333333302</v>
       </c>
       <c r="E115">
@@ -3429,7 +4122,13 @@
       <c r="A116" t="s">
         <v>118</v>
       </c>
-      <c r="D116" s="1">
+      <c r="B116" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116">
         <v>6.9486111111111102</v>
       </c>
       <c r="E116">
@@ -3452,7 +4151,13 @@
       <c r="A117" t="s">
         <v>119</v>
       </c>
-      <c r="D117" s="1">
+      <c r="B117" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C117" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117">
         <v>37.897222222222197</v>
       </c>
       <c r="E117">
@@ -3475,7 +4180,13 @@
       <c r="A118" t="s">
         <v>120</v>
       </c>
-      <c r="D118" s="1">
+      <c r="B118" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C118" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118">
         <v>16.8631944444444</v>
       </c>
       <c r="E118">
@@ -3498,7 +4209,13 @@
       <c r="A119" t="s">
         <v>121</v>
       </c>
-      <c r="D119" s="1">
+      <c r="B119" s="1">
+        <v>44986</v>
+      </c>
+      <c r="C119" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119">
         <v>10.735416666666699</v>
       </c>
       <c r="E119">
@@ -3521,7 +4238,13 @@
       <c r="A120" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="1">
+      <c r="B120" s="1">
+        <v>44719</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120">
         <v>8.59930555555556</v>
       </c>
       <c r="E120">
